--- a/biology/Zoologie/Elephantida/Elephantida.xlsx
+++ b/biology/Zoologie/Elephantida/Elephantida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Elephantida sont un clade qui regroupe les éléphants ainsi que leurs parents disparus, les gomphothères, les Choerolophodontidae, les Amebelodontidae (« défenses de pelle ») et les Stegodontidae.
 </t>
@@ -511,13 +523,85 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le clade des Elephantida est décrit en 1997 par Tassy (d) &amp; Shoshani (d)[1].
-Fossiles
-Selon Paleobiology Database en 2023, ce clade vivant a aussi 1 357 collections de fossiles, de l'Oligocène supérieur à l'Holocène, soit de 28,4 à 0 Ma avant notre ère[1].
-Cladogramme
-Phylogénie des genres d'éléphants ainsi que d'autres familles proches, d'après les caractéristiques de leur os hyoïde, selon Shoshani et al. (2007)[2], les caractéristiques anatomiques du squelette, selon Cozzuol et al. 2012[3], et les caractéristiques génétiques selon Meyer et al. 2017[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le clade des Elephantida est décrit en 1997 par Tassy (d) &amp; Shoshani (d).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Elephantida</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elephantida</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, ce clade vivant a aussi 1 357 collections de fossiles, de l'Oligocène supérieur à l'Holocène, soit de 28,4 à 0 Ma avant notre ère.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Elephantida</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elephantida</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cladogramme</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des genres d'éléphants ainsi que d'autres familles proches, d'après les caractéristiques de leur os hyoïde, selon Shoshani et al. (2007), les caractéristiques anatomiques du squelette, selon Cozzuol et al. 2012, et les caractéristiques génétiques selon Meyer et al. 2017 :
 </t>
         </is>
       </c>
